--- a/03_Data_Analysis/Sprint_05/Unidad_02_Procesado_Datos_Internos_Ficheros/02_Ejercicios_Workout/data/dataset_eventos_excel.xlsx
+++ b/03_Data_Analysis/Sprint_05/Unidad_02_Procesado_Datos_Internos_Ficheros/02_Ejercicios_Workout/data/dataset_eventos_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>año</t>
+          <t>año|acontecimiento</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>acontecimiento</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lugar</t>
+          <t>lugares</t>
         </is>
       </c>
     </row>
@@ -454,15 +449,12 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1776</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1776|La firma de la Declaración de Independencia de Estados Unidos</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>La firma de la Declaración de Independencia de Estados Unidos</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>Estados Unidos</t>
         </is>
@@ -472,15 +464,12 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>476</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>476|La caída del Imperio Romano de Occidente</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>La caída del Imperio Romano de Occidente</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>Italia</t>
         </is>
@@ -490,15 +479,12 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1789</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1789|La Revolución Francesa</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>La Revolución Francesa</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>Francia</t>
         </is>
@@ -508,15 +494,12 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>1492</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1492|El descubrimiento de América por Cristóbal Colón</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>El descubrimiento de América por Cristóbal Colón</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>Bahamas</t>
         </is>
@@ -526,15 +509,12 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>1912</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1912|El hundimiento del Titanic</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>El hundimiento del Titanic</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>el Atlántico Norte</t>
         </is>
@@ -544,15 +524,12 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>1903</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1903|El primer vuelo de los hermanos Wright</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>El primer vuelo de los hermanos Wright</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>Estados Unidos</t>
         </is>
@@ -562,15 +539,12 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>753</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>753|La fundación de Roma</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>La fundación de Roma</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>Italia</t>
         </is>
@@ -580,15 +554,12 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>1914</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1914|El inicio de la Primera Guerra Mundial</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>El inicio de la Primera Guerra Mundial</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>Europa</t>
         </is>
@@ -598,15 +569,12 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>1945</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1945|El final de la Segunda Guerra Mundial</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>El final de la Segunda Guerra Mundial</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>el Mundo</t>
         </is>
@@ -616,15 +584,12 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>1989</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1989|La caída del Muro de Berlín</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>La caída del Muro de Berlín</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>Alemania</t>
         </is>
@@ -634,15 +599,12 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>1868</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1868|El inicio de la era Meiji</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>El inicio de la era Meiji</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>Japón</t>
         </is>
@@ -652,15 +614,12 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>1440</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1440|La invención de la imprenta por Johannes Gutenberg</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>La invención de la imprenta por Johannes Gutenberg</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t>Alemania</t>
         </is>
@@ -670,15 +629,12 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>1919</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1919|La firma del Tratado de Versalles</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>La firma del Tratado de Versalles</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
         <is>
           <t>Francia</t>
         </is>
@@ -688,15 +644,12 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>1917</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1917|La Revolución Rusa</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>La Revolución Rusa</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t>Rusia</t>
         </is>
@@ -706,15 +659,12 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>1453</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1453|La conquista de Constantinopla por los otomanos</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
-        <is>
-          <t>La conquista de Constantinopla por los otomanos</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
         <is>
           <t>Turquía</t>
         </is>
@@ -724,15 +674,12 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>563</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>563|El nacimiento de Buda Gautama</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>El nacimiento de Buda Gautama</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
@@ -742,15 +689,12 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>1993</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1993|La creación de la Unión Europea</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>La creación de la Unión Europea</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>Europa</t>
         </is>
@@ -760,15 +704,12 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>1953</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1953|La primera ascensión al Everest</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>La primera ascensión al Everest</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
@@ -778,15 +719,12 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>1300</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1300|El inicio del Renacimiento</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
-        <is>
-          <t>El inicio del Renacimiento</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
         <is>
           <t>Italia</t>
         </is>
@@ -796,15 +734,12 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>1944</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1944|La invasión de Normandía durante la Segunda Guerra Mundial</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
-        <is>
-          <t>La invasión de Normandía durante la Segunda Guerra Mundial</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>Francia</t>
         </is>
@@ -814,15 +749,12 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>1533</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1533|La caída del Imperio Inca</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>La caída del Imperio Inca</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
@@ -832,15 +764,12 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>1947</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1947|La independencia de la India</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
-        <is>
-          <t>La independencia de la India</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
         <is>
           <t>India</t>
         </is>
@@ -850,15 +779,12 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>1928</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1928|El descubrimiento de la penicilina por Alexander Fleming</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
-        <is>
-          <t>El descubrimiento de la penicilina por Alexander Fleming</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>Reino Unido</t>
         </is>
@@ -868,15 +794,12 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>1949</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1949|La creación de la República Popular China</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>La creación de la República Popular China</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -886,15 +809,12 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>700</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>700|El inicio de la construcción de la Gran Muralla China</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>El inicio de la construcción de la Gran Muralla China</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -904,15 +824,12 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>1492</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1492|El descubrimiento del Nuevo Mundo por Cristóbal Colón</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
-        <is>
-          <t>El descubrimiento del Nuevo Mundo por Cristóbal Colón</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
         <is>
           <t>Bahamas</t>
         </is>
@@ -922,15 +839,12 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>1494</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1494|La firma del Tratado de Tordesillas</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
-        <is>
-          <t>La firma del Tratado de Tordesillas</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
         <is>
           <t>España/Portugal</t>
         </is>
